--- a/xlsx/教育管理学_intext.xlsx
+++ b/xlsx/教育管理学_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
+    <t>教育学</t>
   </si>
 </sst>
 </file>
